--- a/산출물/13.프로그램목록.xlsx
+++ b/산출물/13.프로그램목록.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.137.47964"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.151.49087"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="5" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1310">
   <si>
     <t>승인자</t>
   </si>
@@ -3868,6 +3868,337 @@
   <si>
     <t>수정</t>
   </si>
+  <si>
+    <t>PG-EXPR-012</t>
+  </si>
+  <si>
+    <t>유료상품 이벤트</t>
+  </si>
+  <si>
+    <t>유료상품 이벤트 등록</t>
+  </si>
+  <si>
+    <t>DDIT-A11-004</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), SEEKER(일반회원), EXPROD(유료상품), EXEVENT(이벤트)</t>
+  </si>
+  <si>
+    <t>PG-EXPR-007</t>
+  </si>
+  <si>
+    <t>PG-EXPR-008</t>
+  </si>
+  <si>
+    <t>PG-EXPR-009</t>
+  </si>
+  <si>
+    <t>PG-EXPR-010</t>
+  </si>
+  <si>
+    <t>PG-EXPR-011</t>
+  </si>
+  <si>
+    <t>상품 등록</t>
+  </si>
+  <si>
+    <t>전문가 마이페이지</t>
+  </si>
+  <si>
+    <t>환전 신청</t>
+  </si>
+  <si>
+    <t>상담 상품 진행</t>
+  </si>
+  <si>
+    <t>클래스 상품 진행</t>
+  </si>
+  <si>
+    <t>유료 상품 등록(상담, 클래스)</t>
+  </si>
+  <si>
+    <t>신청 중인 상품의 상태, 등록완료한 상품, 상품 수정, 알림, 구매자 명단, 상품별 이용후기, 상품별 찜 갯수 확인하는 기능</t>
+  </si>
+  <si>
+    <t>보유 금액을 환전 신청하는 기능</t>
+  </si>
+  <si>
+    <t>본인이 올린 상담 상품을 진행하는 과정</t>
+  </si>
+  <si>
+    <t>본인이 올린 클래스 상품을 진행하는 과정</t>
+  </si>
+  <si>
+    <t>DDIT-E02-001</t>
+  </si>
+  <si>
+    <t>DDIT-E01-001,
+DDIT-E01-002,
+DDIT-E01-003,
+DDIT-E01-004,
+DDIT-E01-005,
+DDIT-E01-006,
+DDIT-E01-007,
+DDIT-E01-008</t>
+  </si>
+  <si>
+    <t>DDIT-E02-004</t>
+  </si>
+  <si>
+    <t>DDIT-E02-002</t>
+  </si>
+  <si>
+    <t>DDIT-E02-003</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), SEEKER(일반회원), EXPERT(전문가), EXPROD(상품), EXLPROD(상품분류)</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), SEEKER(일반회원), EXPERT(전문가), EXPROD(상품), EXLPROD(상품분류),EXCART(구매상품), EXREVIEW(후기)</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), SEEKER(일반회원), EXPERT(전문가),
+EXCART(구매상품)</t>
+  </si>
+  <si>
+    <t>PG-JOIN-003</t>
+  </si>
+  <si>
+    <t>PG-MYPG-004</t>
+  </si>
+  <si>
+    <t>PG-MYPG-005</t>
+  </si>
+  <si>
+    <t>PG-MYPG-006</t>
+  </si>
+  <si>
+    <t>기업 등록</t>
+  </si>
+  <si>
+    <t>마이페이지(기업수정)</t>
+  </si>
+  <si>
+    <t>마이페이지(조회)</t>
+  </si>
+  <si>
+    <t>마이페이지(권한)</t>
+  </si>
+  <si>
+    <t>기업회원 가입시 본인의 기업을 등록한다.</t>
+  </si>
+  <si>
+    <t>최고 권한자의 기업 수정 기능</t>
+  </si>
+  <si>
+    <t>우리기업현황, 채용과정현황, 홍보글 조회 기능</t>
+  </si>
+  <si>
+    <t>최고 권한자는 기업 채용 담당자들을 조회하고 권한을 부여 및 회수하는 기능</t>
+  </si>
+  <si>
+    <t>DDIT-N01-006</t>
+  </si>
+  <si>
+    <t>DDIT-O06-005</t>
+  </si>
+  <si>
+    <t>DDIT-O06-001,
+DDIT-O06-002,
+DDIT-O06-003</t>
+  </si>
+  <si>
+    <t>DDIT-O06-007</t>
+  </si>
+  <si>
+    <t>COMPANY(회사)</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), INCRUITER(기업회원,COMPANY(회사)</t>
+  </si>
+  <si>
+    <t>PG-EXPR-002</t>
+  </si>
+  <si>
+    <t>PG-MYPG-002</t>
+  </si>
+  <si>
+    <t>PG-MYPG-003</t>
+  </si>
+  <si>
+    <t>전문가 신청</t>
+  </si>
+  <si>
+    <t>마이페이지(이력서)</t>
+  </si>
+  <si>
+    <t>일반회원의 전문가 신청</t>
+  </si>
+  <si>
+    <t>알림, 지원현황, 관심공고 및 기업, 받은 제안, 구직내역 조회 기능</t>
+  </si>
+  <si>
+    <t>마이페이지 이력서 등록 및 조회</t>
+  </si>
+  <si>
+    <t>DDIT-C08-004</t>
+  </si>
+  <si>
+    <t>DDIT-H05-001,
+DDIT-H05-002,
+DDIT-H05-005,
+DDIT-H05-006,
+DDIT-H05-007</t>
+  </si>
+  <si>
+    <t>DDIT-H05-004</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), SEEKER(일반회원), EXPERT(전문가)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEMBER(회원), SEEKER(일반회원),
+APPLY(지원), ANNOUNCEMENT(공고), COMPANY(회사)
+</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), SEEKER(일반회원), 
+MYRESUME(나의이력서)</t>
+  </si>
+  <si>
+    <t>전체 채용 공고를 조회할 수 있으며 투명도순 / 최신 등록 순 /
+ 남은 기간 순 / 금액 높은 순으로 정렬할 수 있다.</t>
+  </si>
+  <si>
+    <t>PG-EXPR-001</t>
+  </si>
+  <si>
+    <t>PG-EXPR-003</t>
+  </si>
+  <si>
+    <t>PG-EXPR-004</t>
+  </si>
+  <si>
+    <t>PG-EXPR-005</t>
+  </si>
+  <si>
+    <t>PG-EXPR-006</t>
+  </si>
+  <si>
+    <t>PG-EXPR-013</t>
+  </si>
+  <si>
+    <t>PG-MYPG-001</t>
+  </si>
+  <si>
+    <t>유료상품 조회</t>
+  </si>
+  <si>
+    <t>유료상품 후기</t>
+  </si>
+  <si>
+    <t>유료상품 구매</t>
+  </si>
+  <si>
+    <t>유료상품 클래스 이용</t>
+  </si>
+  <si>
+    <t>유료상품 상담 이용</t>
+  </si>
+  <si>
+    <t>유료상품 이벤트 조회</t>
+  </si>
+  <si>
+    <t>마이페이지(수정)</t>
+  </si>
+  <si>
+    <t>유료상품 후기 등록/수정/조회/삭제</t>
+  </si>
+  <si>
+    <t>유료상품 구매/ 결제</t>
+  </si>
+  <si>
+    <t>유료상품 클래스를 수강하는 기능</t>
+  </si>
+  <si>
+    <t>유료상품 상담 상품을 이용하는 기능</t>
+  </si>
+  <si>
+    <t>마이페이지 개인정보 수정 기능</t>
+  </si>
+  <si>
+    <t>DDIT-C08-002</t>
+  </si>
+  <si>
+    <t>DDIT-C08-006</t>
+  </si>
+  <si>
+    <t>DDIT-C08-007</t>
+  </si>
+  <si>
+    <t>DDIT-C08-008</t>
+  </si>
+  <si>
+    <t>DDIT-C08-009</t>
+  </si>
+  <si>
+    <t>DDIT-C08-003</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), SEEKER(일반회원), EXPROD(유료상품)</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), EXCART(구매상품), EXREVIEW(후기)</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), EXCART(구매상품)</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), EXCART(구매상품),  EXPROD(상품)</t>
+  </si>
+  <si>
+    <t>MEMBER(회원)</t>
+  </si>
+  <si>
+    <t>PG-JOIN-001</t>
+  </si>
+  <si>
+    <t>PG-JOIN-002</t>
+  </si>
+  <si>
+    <t>일반회원 회원가입</t>
+  </si>
+  <si>
+    <t>기업회원 회원가입</t>
+  </si>
+  <si>
+    <t>일반회원의 회원가입</t>
+  </si>
+  <si>
+    <t>기업회원이 회원가입할 수 있도로 한다.</t>
+  </si>
+  <si>
+    <t>DDIT-N01-001,
+DDIT-N01-002,
+DDIT-N01-003,
+DDIT-N01-004,
+DDIT-N01-005</t>
+  </si>
+  <si>
+    <t>DDIT-N01-001,
+DDIT-N01-002,
+DDIT-N01-003,
+DDIT-N01-004,
+DDIT-N01-005,
+DDIT-N01-006</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), SEEKER(일반회원)</t>
+  </si>
+  <si>
+    <t>MEMBER(회원), INCRUITER(기업회원), 
+COMPANY(회사)</t>
+  </si>
 </sst>
 </file>
 
@@ -3883,7 +4214,7 @@
     <numFmt numFmtId="181" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="182" formatCode="_-&quot;₩&quot;* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="81">
+  <fonts count="83">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -4310,6 +4641,26 @@
       <color rgb="FF000000"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="10.0"/>
       <name val="맑은 고딕"/>
@@ -4345,16 +4696,6 @@
       <sz val="12.0"/>
       <name val="Arial"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-      <color theme="1"/>
     </font>
   </fonts>
   <fills count="38">
@@ -5166,7 +5507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5512,7 +5853,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="58" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5527,9 +5868,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5537,30 +5875,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5569,33 +5898,18 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="37" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="37" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5629,59 +5943,101 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="37" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="37" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="57" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="108">
@@ -6133,9 +6489,9 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="276225" y="4394835"/>
+            <a:off x="238760" y="4394835"/>
             <a:ext cx="2915920" cy="756920"/>
-            <a:chOff x="276225" y="4394835"/>
+            <a:chOff x="238760" y="4394835"/>
             <a:chExt cx="2915920" cy="756920"/>
           </a:xfrm>
         </xdr:grpSpPr>
@@ -6148,7 +6504,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="276225" y="4403725"/>
+              <a:off x="238760" y="4403725"/>
               <a:ext cx="2907030" cy="737870"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -6173,7 +6529,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="276225" y="4641215"/>
+              <a:off x="238760" y="4641215"/>
               <a:ext cx="2915920" cy="46990"/>
             </a:xfrm>
             <a:prstGeom prst="line"/>
@@ -6212,7 +6568,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="276225" y="4868545"/>
+              <a:off x="238760" y="4868545"/>
               <a:ext cx="2915920" cy="36195"/>
             </a:xfrm>
             <a:prstGeom prst="line"/>
@@ -6251,7 +6607,7 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1334135" y="4403725"/>
+              <a:off x="1296670" y="4403725"/>
               <a:ext cx="38100" cy="748030"/>
             </a:xfrm>
             <a:prstGeom prst="line"/>
@@ -6292,7 +6648,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="322580" y="4403725"/>
+              <a:off x="285115" y="4403725"/>
               <a:ext cx="1067435" cy="284480"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -6340,7 +6696,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="322580" y="4620895"/>
+              <a:off x="285115" y="4620895"/>
               <a:ext cx="1067435" cy="304165"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -6388,7 +6744,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="322580" y="4885055"/>
+              <a:off x="285115" y="4885055"/>
               <a:ext cx="1067435" cy="248920"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -6436,7 +6792,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1602740" y="4394835"/>
+              <a:off x="1565275" y="4394835"/>
               <a:ext cx="1469390" cy="300990"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -6484,7 +6840,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1584960" y="4641215"/>
+              <a:off x="1547495" y="4641215"/>
               <a:ext cx="1475740" cy="274320"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -6532,7 +6888,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1584960" y="4868545"/>
+              <a:off x="1547495" y="4868545"/>
               <a:ext cx="1466850" cy="253365"/>
             </a:xfrm>
             <a:prstGeom prst="rect"/>
@@ -6581,8 +6937,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5941060" y="4991735"/>
-            <a:ext cx="2860040" cy="283210"/>
+            <a:off x="5903595" y="4991735"/>
+            <a:ext cx="2860675" cy="283210"/>
           </a:xfrm>
           <a:prstGeom prst="rect"/>
           <a:noFill/>
@@ -8018,8 +8374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8751,7 +9107,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -8887,25 +9243,49 @@
         <v>806</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="47.250000" customHeight="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="47.250000" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="32"/>
+    <row r="7" spans="1:8" s="124" customFormat="1" ht="82.500000">
+      <c r="A7" s="176" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H7" s="139" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="124" customFormat="1" ht="99.000000">
+      <c r="A8" s="176" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H8" s="139" t="s">
+        <v>1309</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="47.250000" customHeight="1">
       <c r="A9" s="73"/>
@@ -8986,10 +9366,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9112,297 +9492,564 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="119" t="s">
         <v>976</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="126" t="s">
         <v>987</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="130" t="s">
         <v>998</v>
       </c>
-      <c r="D7" s="142"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="142" t="s">
+      <c r="F7" s="128" t="s">
         <v>1009</v>
       </c>
       <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="119" t="s">
         <v>977</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="126" t="s">
         <v>988</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="130" t="s">
         <v>999</v>
       </c>
-      <c r="D8" s="142"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="142" t="s">
+      <c r="F8" s="128" t="s">
         <v>1010</v>
       </c>
       <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="119" t="s">
         <v>978</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="126" t="s">
         <v>989</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="130" t="s">
         <v>1000</v>
       </c>
-      <c r="D9" s="142"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="142" t="s">
+      <c r="F9" s="128" t="s">
         <v>1011</v>
       </c>
       <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="119" t="s">
         <v>979</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="126" t="s">
         <v>990</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="130" t="s">
         <v>1001</v>
       </c>
-      <c r="D10" s="142"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="142" t="s">
+      <c r="F10" s="128" t="s">
         <v>1012</v>
       </c>
       <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="119" t="s">
         <v>980</v>
       </c>
       <c r="B11" s="94" t="s">
         <v>991</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="130" t="s">
         <v>1002</v>
       </c>
-      <c r="D11" s="142"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="38"/>
-      <c r="F11" s="142" t="s">
+      <c r="F11" s="128" t="s">
         <v>1013</v>
       </c>
       <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="119" t="s">
         <v>981</v>
       </c>
       <c r="B12" s="94" t="s">
         <v>992</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="130" t="s">
         <v>1003</v>
       </c>
-      <c r="D12" s="142"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="38"/>
-      <c r="F12" s="142" t="s">
+      <c r="F12" s="128" t="s">
         <v>1014</v>
       </c>
       <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="119" t="s">
         <v>982</v>
       </c>
       <c r="B13" s="94" t="s">
         <v>993</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="130" t="s">
         <v>1004</v>
       </c>
-      <c r="D13" s="142"/>
+      <c r="D13" s="128"/>
       <c r="E13" s="38"/>
-      <c r="F13" s="142" t="s">
+      <c r="F13" s="128" t="s">
         <v>1015</v>
       </c>
       <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="119" t="s">
         <v>983</v>
       </c>
       <c r="B14" s="94" t="s">
         <v>994</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="130" t="s">
         <v>1005</v>
       </c>
-      <c r="D14" s="142"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="38"/>
-      <c r="F14" s="142" t="s">
+      <c r="F14" s="128" t="s">
         <v>1016</v>
       </c>
       <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="119" t="s">
         <v>984</v>
       </c>
       <c r="B15" s="94" t="s">
         <v>995</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="130" t="s">
         <v>1006</v>
       </c>
-      <c r="D15" s="142"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="128" t="s">
         <v>1017</v>
       </c>
       <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="128" t="s">
         <v>985</v>
       </c>
       <c r="B16" s="94" t="s">
         <v>996</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="130" t="s">
         <v>1007</v>
       </c>
-      <c r="D16" s="136"/>
+      <c r="D16" s="131"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="136" t="s">
+      <c r="F16" s="131" t="s">
         <v>1018</v>
       </c>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A17" s="142" t="s">
+    <row r="17" spans="1:9" ht="68.250000" customHeight="1">
+      <c r="A17" s="128" t="s">
         <v>986</v>
       </c>
       <c r="B17" s="94" t="s">
         <v>997</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="130" t="s">
         <v>1008</v>
       </c>
-      <c r="D17" s="136"/>
+      <c r="D17" s="131"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="136" t="s">
+      <c r="F17" s="131" t="s">
         <v>1019</v>
       </c>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A18" s="142" t="s">
+    <row r="18" spans="1:9" ht="68.250000" customHeight="1">
+      <c r="A18" s="128" t="s">
         <v>1032</v>
       </c>
       <c r="B18" s="94" t="s">
         <v>1036</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="130" t="s">
         <v>1040</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="136" t="s">
+      <c r="F18" s="131" t="s">
         <v>1044</v>
       </c>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A19" s="142" t="s">
+    <row r="19" spans="1:9" ht="68.250000" customHeight="1">
+      <c r="A19" s="128" t="s">
         <v>1033</v>
       </c>
       <c r="B19" s="94" t="s">
         <v>1037</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="130" t="s">
         <v>1041</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="136" t="s">
+      <c r="F19" s="131" t="s">
         <v>1045</v>
       </c>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A20" s="142" t="s">
+    <row r="20" spans="1:9" ht="68.250000" customHeight="1">
+      <c r="A20" s="128" t="s">
         <v>1034</v>
       </c>
       <c r="B20" s="94" t="s">
         <v>1038</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="130" t="s">
         <v>1042</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="136" t="s">
+      <c r="F20" s="131" t="s">
         <v>1046</v>
       </c>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A21" s="142" t="s">
+    <row r="21" spans="1:9" ht="68.250000" customHeight="1">
+      <c r="A21" s="128" t="s">
         <v>1035</v>
       </c>
       <c r="B21" s="94" t="s">
         <v>1039</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="126" t="s">
         <v>1043</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="131" t="s">
         <v>1047</v>
       </c>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A22" s="170" t="s">
+    <row r="22" spans="1:9" ht="68.250000" customHeight="1">
+      <c r="A22" s="129" t="s">
         <v>1171</v>
       </c>
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="129" t="s">
         <v>1172</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="C22" s="149" t="s">
         <v>1173</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="161" t="s">
+      <c r="F22" s="148" t="s">
         <v>1174</v>
       </c>
-      <c r="G22" s="170" t="s">
+      <c r="G22" s="129" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="68.250000" customHeight="1">
-      <c r="A23" s="170" t="s">
+    <row r="23" spans="1:9" ht="68.250000" customHeight="1">
+      <c r="A23" s="129" t="s">
         <v>1179</v>
       </c>
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="129" t="s">
         <v>1180</v>
       </c>
-      <c r="C23" s="162" t="s">
+      <c r="C23" s="149" t="s">
         <v>1181</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="161" t="s">
+      <c r="F23" s="148" t="s">
         <v>1174</v>
       </c>
-      <c r="G23" s="170" t="s">
+      <c r="G23" s="155" t="s">
         <v>1175</v>
       </c>
+    </row>
+    <row r="24" spans="1:9" ht="88.500000" customHeight="1">
+      <c r="A24" s="135" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="116" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E24" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="156" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G24" s="137" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H24" s="151"/>
+    </row>
+    <row r="25" spans="1:9" ht="88.500000" customHeight="1">
+      <c r="A25" s="135" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="116" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E25" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="156" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G25" s="137" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H25" s="151"/>
+    </row>
+    <row r="26" spans="1:9" ht="88.500000" customHeight="1">
+      <c r="A26" s="135" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="116" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E26" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="156" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G26" s="137" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H26" s="151"/>
+    </row>
+    <row r="27" spans="1:9" ht="88.500000" customHeight="1">
+      <c r="A27" s="135" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="C27" s="116" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D27" s="121" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E27" s="120" t="s">
+        <v>757</v>
+      </c>
+      <c r="F27" s="156" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G27" s="137" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H27" s="151"/>
+    </row>
+    <row r="28" spans="1:9" ht="88.500000" customHeight="1">
+      <c r="A28" s="135" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C28" s="116" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E28" s="121" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F28" s="156" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G28" s="141" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H28" s="152"/>
+    </row>
+    <row r="29" spans="1:9" s="124" customFormat="1" ht="39.000000" customHeight="1">
+      <c r="A29" s="171" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C29" s="139" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D29" s="121"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="172" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G29" s="139" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H29" s="166"/>
+      <c r="I29" s="124"/>
+    </row>
+    <row r="30" spans="1:9" s="124" customFormat="1" ht="33.000000" customHeight="1">
+      <c r="A30" s="171" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C30" s="139" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D30" s="121"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="173" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G30" s="139" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H30" s="166"/>
+      <c r="I30" s="124"/>
+    </row>
+    <row r="31" spans="1:9" s="124" customFormat="1" ht="35.250000" customHeight="1">
+      <c r="A31" s="171" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C31" s="139" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="174" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G31" s="139" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H31" s="166"/>
+      <c r="I31" s="124"/>
+    </row>
+    <row r="32" spans="1:9" s="124" customFormat="1" ht="33.000000">
+      <c r="A32" s="171" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B32" s="171" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C32" s="171" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D32" s="122"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="175" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G32" s="139" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H32" s="166"/>
+      <c r="I32" s="124"/>
+    </row>
+    <row r="33" spans="1:9" s="124" customFormat="1" ht="33.000000">
+      <c r="A33" s="171" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B33" s="171" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C33" s="171" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D33" s="122"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="175" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G33" s="139" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H33" s="166"/>
+      <c r="I33" s="124"/>
+    </row>
+    <row r="34" spans="1:9" s="124" customFormat="1" ht="56.250000" customHeight="1">
+      <c r="A34" s="171" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D34" s="121"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="174" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G34" s="139" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H34" s="166"/>
+      <c r="I34" s="124"/>
+    </row>
+    <row r="35" spans="1:9" s="124" customFormat="1" ht="56.250000" customHeight="1">
+      <c r="A35" s="171" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D35" s="121"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="175" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G35" s="139" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H35" s="166"/>
+      <c r="I35" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9420,10 +10067,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -9545,7 +10192,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="115" t="s">
         <v>899</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -9554,21 +10201,21 @@
       <c r="C7" s="116" t="s">
         <v>911</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="118" t="s">
         <v>917</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="119" t="s">
         <v>905</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="118" t="s">
         <v>923</v>
       </c>
-      <c r="G7" s="121" t="s">
+      <c r="G7" s="120" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="115" t="s">
         <v>900</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -9577,21 +10224,21 @@
       <c r="C8" s="116" t="s">
         <v>912</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="121" t="s">
         <v>917</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="120" t="s">
         <v>906</v>
       </c>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="118" t="s">
         <v>924</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="120" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="115" t="s">
         <v>901</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -9600,88 +10247,88 @@
       <c r="C9" s="116" t="s">
         <v>913</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="118" t="s">
         <v>918</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E9" s="120" t="s">
         <v>921</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="122" t="s">
         <v>925</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="120" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="115" t="s">
         <v>902</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="123" t="s">
         <v>908</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="D10" s="118" t="s">
         <v>919</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="118" t="s">
         <v>922</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="122" t="s">
         <v>926</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="120" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="115" t="s">
         <v>903</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="123" t="s">
         <v>909</v>
       </c>
       <c r="C11" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="118" t="s">
         <v>920</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="118" t="s">
         <v>922</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="122" t="s">
         <v>927</v>
       </c>
-      <c r="G11" s="121" t="s">
+      <c r="G11" s="120" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="115" t="s">
         <v>904</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="123" t="s">
         <v>910</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>916</v>
       </c>
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="122" t="s">
         <v>919</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="118" t="s">
         <v>910</v>
       </c>
-      <c r="F12" s="124" t="s">
+      <c r="F12" s="122" t="s">
         <v>928</v>
       </c>
-      <c r="G12" s="121"/>
+      <c r="G12" s="120"/>
     </row>
     <row r="13" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A13" s="127" t="s">
+      <c r="A13" s="115" t="s">
         <v>930</v>
       </c>
       <c r="B13" s="31" t="s">
@@ -9690,421 +10337,484 @@
       <c r="C13" s="116" t="s">
         <v>938</v>
       </c>
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="121" t="s">
         <v>918</v>
       </c>
-      <c r="E13" s="123" t="s">
+      <c r="E13" s="118" t="s">
         <v>934</v>
       </c>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="122" t="s">
         <v>944</v>
       </c>
-      <c r="G13" s="121" t="s">
+      <c r="G13" s="120" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="115" t="s">
         <v>931</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>935</v>
       </c>
-      <c r="C14" s="164" t="s">
+      <c r="C14" s="125" t="s">
         <v>939</v>
       </c>
-      <c r="D14" s="123" t="s">
+      <c r="D14" s="118" t="s">
         <v>918</v>
       </c>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="118" t="s">
         <v>942</v>
       </c>
-      <c r="F14" s="124" t="s">
+      <c r="F14" s="122" t="s">
         <v>945</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="120" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A15" s="127" t="s">
+      <c r="A15" s="115" t="s">
         <v>932</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>936</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="125" t="s">
         <v>940</v>
       </c>
-      <c r="D15" s="123" t="s">
+      <c r="D15" s="118" t="s">
         <v>918</v>
       </c>
-      <c r="E15" s="123" t="s">
+      <c r="E15" s="118" t="s">
         <v>936</v>
       </c>
-      <c r="F15" s="124" t="s">
+      <c r="F15" s="122" t="s">
         <v>946</v>
       </c>
-      <c r="G15" s="121" t="s">
+      <c r="G15" s="120" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="115" t="s">
         <v>933</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>937</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="125" t="s">
         <v>941</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="118" t="s">
         <v>918</v>
       </c>
-      <c r="E16" s="123" t="s">
+      <c r="E16" s="118" t="s">
         <v>943</v>
       </c>
-      <c r="F16" s="124" t="s">
+      <c r="F16" s="122" t="s">
         <v>947</v>
       </c>
-      <c r="G16" s="121"/>
+      <c r="G16" s="120"/>
     </row>
     <row r="17" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="128" t="s">
         <v>1048</v>
       </c>
       <c r="B17" s="94" t="s">
         <v>1051</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="130" t="s">
         <v>1026</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="136" t="s">
+      <c r="F17" s="131" t="s">
         <v>1056</v>
       </c>
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="128" t="s">
         <v>1049</v>
       </c>
       <c r="B18" s="94" t="s">
         <v>1052</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="130" t="s">
         <v>1054</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="136" t="s">
+      <c r="F18" s="131" t="s">
         <v>1057</v>
       </c>
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="128" t="s">
         <v>1050</v>
       </c>
       <c r="B19" s="94" t="s">
         <v>1053</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="130" t="s">
         <v>1055</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="136" t="s">
+      <c r="F19" s="131" t="s">
         <v>1058</v>
       </c>
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="125" t="s">
         <v>1123</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="129" t="s">
         <v>1130</v>
       </c>
-      <c r="C20" s="160" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="161" t="s">
+      <c r="C20" s="170" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D20" s="148"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="G20" s="170" t="s">
+      <c r="G20" s="129" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="125" t="s">
         <v>1124</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="B21" s="129" t="s">
         <v>1131</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="149" t="s">
         <v>1138</v>
       </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="161" t="s">
+      <c r="D21" s="148"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="G21" s="170" t="s">
+      <c r="G21" s="129" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A22" s="164" t="s">
+      <c r="A22" s="125" t="s">
         <v>1125</v>
       </c>
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="129" t="s">
         <v>1132</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="C22" s="149" t="s">
         <v>1139</v>
       </c>
-      <c r="D22" s="161"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="161" t="s">
+      <c r="D22" s="148"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="G22" s="170" t="s">
+      <c r="G22" s="129" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A23" s="164" t="s">
+      <c r="A23" s="125" t="s">
         <v>1126</v>
       </c>
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="129" t="s">
         <v>1133</v>
       </c>
-      <c r="C23" s="162" t="s">
+      <c r="C23" s="149" t="s">
         <v>1140</v>
       </c>
-      <c r="D23" s="161"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="161" t="s">
+      <c r="D23" s="148"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="G23" s="170" t="s">
+      <c r="G23" s="129" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A24" s="164" t="s">
+      <c r="A24" s="125" t="s">
         <v>1127</v>
       </c>
-      <c r="B24" s="170" t="s">
+      <c r="B24" s="129" t="s">
         <v>1134</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C24" s="149" t="s">
         <v>1141</v>
       </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="161" t="s">
+      <c r="D24" s="148"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="G24" s="170" t="s">
+      <c r="G24" s="129" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="125" t="s">
         <v>1128</v>
       </c>
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="129" t="s">
         <v>1135</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="149" t="s">
         <v>1142</v>
       </c>
-      <c r="D25" s="161"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="161" t="s">
+      <c r="D25" s="148"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="G25" s="170" t="s">
+      <c r="G25" s="129" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="125" t="s">
         <v>1129</v>
       </c>
-      <c r="B26" s="170" t="s">
+      <c r="B26" s="129" t="s">
         <v>1136</v>
       </c>
-      <c r="C26" s="162" t="s">
+      <c r="C26" s="149" t="s">
         <v>1143</v>
       </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="161" t="s">
+      <c r="D26" s="148"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="G26" s="170" t="s">
+      <c r="G26" s="129" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A27" s="164" t="s">
+      <c r="A27" s="125" t="s">
         <v>1163</v>
       </c>
-      <c r="B27" s="170" t="s">
+      <c r="B27" s="129" t="s">
         <v>1165</v>
       </c>
-      <c r="C27" s="162" t="s">
+      <c r="C27" s="149" t="s">
         <v>1167</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="161" t="s">
+      <c r="F27" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="G27" s="164" t="s">
+      <c r="G27" s="125" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="125" t="s">
         <v>1164</v>
       </c>
-      <c r="B28" s="170" t="s">
+      <c r="B28" s="129" t="s">
         <v>1166</v>
       </c>
-      <c r="C28" s="162" t="s">
+      <c r="C28" s="149" t="s">
         <v>1168</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="161" t="s">
+      <c r="F28" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="G28" s="170" t="s">
+      <c r="G28" s="129" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A29" s="170" t="s">
+      <c r="A29" s="129" t="s">
         <v>1188</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="129" t="s">
         <v>1194</v>
       </c>
-      <c r="C29" s="162" t="s">
+      <c r="C29" s="149" t="s">
         <v>1200</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="161" t="s">
+      <c r="F29" s="148" t="s">
         <v>1174</v>
       </c>
-      <c r="G29" s="170" t="s">
+      <c r="G29" s="129" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A30" s="170" t="s">
+      <c r="A30" s="129" t="s">
         <v>1189</v>
       </c>
-      <c r="B30" s="170" t="s">
+      <c r="B30" s="129" t="s">
         <v>1195</v>
       </c>
-      <c r="C30" s="162" t="s">
+      <c r="C30" s="149" t="s">
         <v>1201</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="161" t="s">
+      <c r="F30" s="148" t="s">
         <v>1174</v>
       </c>
-      <c r="G30" s="170" t="s">
+      <c r="G30" s="129" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A31" s="170" t="s">
+      <c r="A31" s="129" t="s">
         <v>1190</v>
       </c>
-      <c r="B31" s="170" t="s">
+      <c r="B31" s="129" t="s">
         <v>1196</v>
       </c>
-      <c r="C31" s="162" t="s">
+      <c r="C31" s="149" t="s">
         <v>1202</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="161" t="s">
+      <c r="F31" s="148" t="s">
         <v>1174</v>
       </c>
-      <c r="G31" s="170" t="s">
+      <c r="G31" s="129" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A32" s="170" t="s">
+      <c r="A32" s="129" t="s">
         <v>1191</v>
       </c>
-      <c r="B32" s="170" t="s">
+      <c r="B32" s="129" t="s">
         <v>1197</v>
       </c>
-      <c r="C32" s="162" t="s">
+      <c r="C32" s="149" t="s">
         <v>1203</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="161" t="s">
+      <c r="F32" s="148" t="s">
         <v>1174</v>
       </c>
-      <c r="G32" s="170" t="s">
+      <c r="G32" s="129" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A33" s="170" t="s">
+    <row r="33" spans="1:9" ht="79.500000" customHeight="1">
+      <c r="A33" s="129" t="s">
         <v>1192</v>
       </c>
-      <c r="B33" s="170" t="s">
+      <c r="B33" s="129" t="s">
         <v>1198</v>
       </c>
-      <c r="C33" s="162" t="s">
+      <c r="C33" s="149" t="s">
         <v>1204</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="161" t="s">
+      <c r="F33" s="148" t="s">
         <v>1174</v>
       </c>
-      <c r="G33" s="170" t="s">
+      <c r="G33" s="129" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="79.500000" customHeight="1">
-      <c r="A34" s="170" t="s">
+    <row r="34" spans="1:9" ht="79.500000" customHeight="1">
+      <c r="A34" s="129" t="s">
         <v>1193</v>
       </c>
-      <c r="B34" s="170" t="s">
+      <c r="B34" s="129" t="s">
         <v>1199</v>
       </c>
-      <c r="C34" s="162" t="s">
+      <c r="C34" s="149" t="s">
         <v>1205</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="161" t="s">
+      <c r="F34" s="148" t="s">
         <v>1174</v>
       </c>
-      <c r="G34" s="170" t="s">
+      <c r="G34" s="129" t="s">
         <v>1206</v>
       </c>
+    </row>
+    <row r="35" spans="1:9" s="124" customFormat="1" ht="54.750000" customHeight="1">
+      <c r="A35" s="165" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C35" s="139" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="162" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G35" s="139" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H35" s="166"/>
+      <c r="I35" s="124"/>
+    </row>
+    <row r="36" spans="1:9" s="124" customFormat="1" ht="82.500000">
+      <c r="A36" s="165" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D36" s="121"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="41" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H36" s="167"/>
+      <c r="I36" s="124"/>
+    </row>
+    <row r="37" spans="1:9" s="124" customFormat="1" ht="40.500000" customHeight="1">
+      <c r="A37" s="165" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B37" s="165" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D37" s="121"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="165" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G37" s="139" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H37" s="166"/>
+      <c r="I37" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10122,10 +10832,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10231,7 +10941,7 @@
       <c r="G5" s="101" t="s">
         <v>849</v>
       </c>
-      <c r="H5" s="171" t="s">
+      <c r="H5" s="150" t="s">
         <v>835</v>
       </c>
     </row>
@@ -10314,267 +11024,355 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="119" t="s">
         <v>948</v>
       </c>
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="126" t="s">
         <v>955</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="127" t="s">
         <v>962</v>
       </c>
-      <c r="D9" s="142"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="100"/>
-      <c r="F9" s="170"/>
+      <c r="F9" s="129"/>
       <c r="G9" s="100" t="s">
         <v>969</v>
       </c>
       <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="119" t="s">
         <v>949</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="126" t="s">
         <v>956</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="130" t="s">
         <v>963</v>
       </c>
-      <c r="D10" s="142"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="100"/>
-      <c r="F10" s="170"/>
+      <c r="F10" s="129"/>
       <c r="G10" s="100" t="s">
         <v>970</v>
       </c>
       <c r="H10" s="99"/>
     </row>
     <row r="11" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="119" t="s">
         <v>950</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="126" t="s">
         <v>957</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="130" t="s">
         <v>964</v>
       </c>
-      <c r="D11" s="142"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="100"/>
-      <c r="F11" s="170"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="100" t="s">
         <v>971</v>
       </c>
       <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="119" t="s">
         <v>951</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="126" t="s">
         <v>958</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="130" t="s">
         <v>965</v>
       </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="142" t="s">
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="128" t="s">
         <v>972</v>
       </c>
       <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="119" t="s">
         <v>952</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="126" t="s">
         <v>959</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="130" t="s">
         <v>966</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="142" t="s">
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="128" t="s">
         <v>973</v>
       </c>
       <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="119" t="s">
         <v>953</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="B14" s="126" t="s">
         <v>960</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="130" t="s">
         <v>967</v>
       </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="142" t="s">
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="128" t="s">
         <v>974</v>
       </c>
       <c r="H14" s="99"/>
     </row>
     <row r="15" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="119" t="s">
         <v>954</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="126" t="s">
         <v>961</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="130" t="s">
         <v>968</v>
       </c>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="142" t="s">
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="128" t="s">
         <v>975</v>
       </c>
       <c r="H15" s="99"/>
     </row>
     <row r="16" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="128" t="s">
         <v>1020</v>
       </c>
       <c r="B16" s="94" t="s">
         <v>1023</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="130" t="s">
         <v>1026</v>
       </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="136"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="131"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="136" t="s">
+      <c r="G16" s="131" t="s">
         <v>1029</v>
       </c>
       <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A17" s="142" t="s">
+      <c r="A17" s="128" t="s">
         <v>1021</v>
       </c>
       <c r="B17" s="94" t="s">
         <v>1024</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="130" t="s">
         <v>1027</v>
       </c>
-      <c r="D17" s="142"/>
-      <c r="E17" s="136"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="136" t="s">
+      <c r="G17" s="131" t="s">
         <v>1030</v>
       </c>
       <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A18" s="142" t="s">
+      <c r="A18" s="128" t="s">
         <v>1022</v>
       </c>
       <c r="B18" s="94" t="s">
         <v>1025</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="130" t="s">
         <v>1028</v>
       </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="136"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="131"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="136" t="s">
+      <c r="G18" s="131" t="s">
         <v>1031</v>
       </c>
       <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="125" t="s">
         <v>1150</v>
       </c>
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="129" t="s">
         <v>1154</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="149" t="s">
         <v>1158</v>
       </c>
-      <c r="D19" s="170" t="s">
+      <c r="D19" s="129" t="s">
         <v>754</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="161" t="s">
+      <c r="G19" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="H19" s="170" t="s">
+      <c r="H19" s="129" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="125" t="s">
         <v>1151</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B20" s="129" t="s">
         <v>1155</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="149" t="s">
         <v>1159</v>
       </c>
-      <c r="D20" s="170"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="161" t="s">
+      <c r="G20" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="H20" s="170" t="s">
+      <c r="H20" s="129" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A21" s="164" t="s">
+      <c r="A21" s="125" t="s">
         <v>1152</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="B21" s="129" t="s">
         <v>1156</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="149" t="s">
         <v>1160</v>
       </c>
-      <c r="D21" s="170" t="s">
+      <c r="D21" s="129" t="s">
         <v>754</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="161" t="s">
+      <c r="G21" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="H21" s="170" t="s">
+      <c r="H21" s="129" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="55.500000" customHeight="1">
-      <c r="A22" s="164" t="s">
+      <c r="A22" s="125" t="s">
         <v>1153</v>
       </c>
-      <c r="B22" s="170" t="s">
+      <c r="B22" s="129" t="s">
         <v>1157</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="C22" s="149" t="s">
         <v>1161</v>
       </c>
-      <c r="D22" s="170"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="161" t="s">
+      <c r="G22" s="148" t="s">
         <v>1144</v>
       </c>
-      <c r="H22" s="170" t="s">
+      <c r="H22" s="129" t="s">
         <v>1162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="124" customFormat="1" ht="54.750000" customHeight="1">
+      <c r="A23" s="161" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C23" s="139" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="162" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H23" s="139" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="124" customFormat="1" ht="54.750000" customHeight="1">
+      <c r="A24" s="161" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C24" s="139" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="E24" s="118"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="162" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H24" s="139" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="124" customFormat="1" ht="54.750000" customHeight="1">
+      <c r="A25" s="161" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C25" s="139" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="E25" s="121"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="163" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H25" s="139" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="124" customFormat="1" ht="54.750000" customHeight="1">
+      <c r="A26" s="161" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C26" s="139" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="164" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H26" s="139" t="s">
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -10596,7 +11394,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10680,55 +11478,115 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="54.750000" customHeight="1">
-      <c r="A5" s="73"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" ht="54.750000" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="54.750000" customHeight="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" ht="54.750000" customHeight="1">
-      <c r="A8" s="73"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" ht="54.750000" customHeight="1">
-      <c r="A9" s="73"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="32"/>
+    <row r="5" spans="1:8" s="124" customFormat="1" ht="54.750000" customHeight="1">
+      <c r="A5" s="158" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D5" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="159" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H5" s="139" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="124" customFormat="1" ht="132.000000">
+      <c r="A6" s="158" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="159" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H6" s="139" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="124" customFormat="1" ht="54.750000" customHeight="1">
+      <c r="A7" s="158" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="E7" s="118"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="159" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H7" s="139" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="124" customFormat="1" ht="54.750000" customHeight="1">
+      <c r="A8" s="158" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="E8" s="121"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="160" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H8" s="139" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="124" customFormat="1" ht="54.750000" customHeight="1">
+      <c r="A9" s="158" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="160" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H9" s="139" t="s">
+        <v>1236</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="54.750000" customHeight="1">
       <c r="A10" s="73"/>
@@ -10799,10 +11657,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10887,425 +11745,317 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A5" s="154" t="s">
-        <v>1059</v>
+      <c r="A5" s="135" t="s">
+        <v>1064</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>27</v>
+        <v>1074</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="D5" s="117" t="s">
         <v>754</v>
       </c>
-      <c r="E5" s="122" t="s">
-        <v>1097</v>
+      <c r="E5" s="121" t="s">
+        <v>1099</v>
       </c>
       <c r="F5" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="122" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H5" s="146" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G5" s="103" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H5" s="138" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A6" s="154" t="s">
-        <v>1060</v>
+      <c r="A6" s="135" t="s">
+        <v>1065</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>29</v>
+        <v>1075</v>
       </c>
       <c r="C6" s="116" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="D6" s="117" t="s">
         <v>754</v>
       </c>
-      <c r="E6" s="122" t="s">
-        <v>1097</v>
+      <c r="E6" s="121" t="s">
+        <v>1100</v>
       </c>
       <c r="F6" s="121" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="122" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H6" s="146" t="s">
-        <v>1116</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="G6" s="103" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H6" s="138"/>
     </row>
     <row r="7" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A7" s="154" t="s">
-        <v>1061</v>
+      <c r="A7" s="135" t="s">
+        <v>1066</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>31</v>
+        <v>1076</v>
       </c>
       <c r="C7" s="116" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="D7" s="117" t="s">
         <v>754</v>
       </c>
-      <c r="E7" s="122" t="s">
-        <v>1097</v>
+      <c r="E7" s="121" t="s">
+        <v>1100</v>
       </c>
       <c r="F7" s="121" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="122" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H7" s="146" t="s">
-        <v>1116</v>
+        <v>1076</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H7" s="138" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A8" s="154" t="s">
-        <v>1062</v>
+      <c r="A8" s="135" t="s">
+        <v>1067</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>757</v>
+        <v>1077</v>
       </c>
       <c r="C8" s="116" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="D8" s="117" t="s">
         <v>754</v>
       </c>
-      <c r="E8" s="122" t="s">
-        <v>1097</v>
+      <c r="E8" s="121" t="s">
+        <v>1100</v>
       </c>
       <c r="F8" s="121" t="s">
-        <v>757</v>
-      </c>
-      <c r="G8" s="122" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H8" s="146" t="s">
-        <v>1116</v>
+        <v>1077</v>
+      </c>
+      <c r="G8" s="103" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H8" s="138" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A9" s="154" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C9" s="116" t="s">
-        <v>1087</v>
+      <c r="A9" s="135" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B9" s="138" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>1092</v>
       </c>
       <c r="D9" s="117" t="s">
         <v>754</v>
       </c>
-      <c r="E9" s="122" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F9" s="122" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G9" s="122" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H9" s="155" t="s">
-        <v>1116</v>
+      <c r="E9" s="103" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="121" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G9" s="103" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H9" s="138" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A10" s="154" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C10" s="116" t="s">
-        <v>1088</v>
+      <c r="A10" s="135" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B10" s="138" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>1093</v>
       </c>
       <c r="D10" s="117" t="s">
         <v>754</v>
       </c>
-      <c r="E10" s="122" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F10" s="122" t="s">
-        <v>1074</v>
+      <c r="E10" s="103" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>1079</v>
       </c>
       <c r="G10" s="103" t="s">
-        <v>1107</v>
-      </c>
-      <c r="H10" s="155" t="s">
-        <v>1116</v>
+        <v>1112</v>
+      </c>
+      <c r="H10" s="138" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A11" s="154" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C11" s="116" t="s">
-        <v>1089</v>
+      <c r="A11" s="135" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B11" s="138" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>1094</v>
       </c>
       <c r="D11" s="117" t="s">
         <v>754</v>
       </c>
-      <c r="E11" s="122" t="s">
+      <c r="E11" s="103" t="s">
         <v>1100</v>
       </c>
-      <c r="F11" s="122" t="s">
-        <v>1075</v>
+      <c r="F11" s="121" t="s">
+        <v>1080</v>
       </c>
       <c r="G11" s="103" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H11" s="155"/>
+        <v>1113</v>
+      </c>
+      <c r="H11" s="138" t="s">
+        <v>1121</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A12" s="154" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C12" s="116" t="s">
-        <v>1090</v>
+      <c r="A12" s="135" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B12" s="138" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C12" s="139" t="s">
+        <v>1095</v>
       </c>
       <c r="D12" s="117" t="s">
         <v>754</v>
       </c>
-      <c r="E12" s="122" t="s">
+      <c r="E12" s="103" t="s">
         <v>1100</v>
       </c>
-      <c r="F12" s="122" t="s">
-        <v>1076</v>
+      <c r="F12" s="103" t="s">
+        <v>1081</v>
       </c>
       <c r="G12" s="103" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H12" s="155" t="s">
-        <v>1117</v>
+        <v>1114</v>
+      </c>
+      <c r="H12" s="138" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A13" s="154" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C13" s="116" t="s">
-        <v>1091</v>
+      <c r="A13" s="135" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B13" s="138" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C13" s="139" t="s">
+        <v>1096</v>
       </c>
       <c r="D13" s="117" t="s">
         <v>754</v>
       </c>
-      <c r="E13" s="122" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F13" s="122" t="s">
-        <v>1077</v>
+      <c r="E13" s="103" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>1082</v>
       </c>
       <c r="G13" s="103" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H13" s="155" t="s">
-        <v>1118</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="H13" s="138"/>
     </row>
     <row r="14" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A14" s="154" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B14" s="155" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C14" s="156" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D14" s="117" t="s">
+      <c r="A14" s="129" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B14" s="129" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C14" s="149" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="148" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H14" s="129" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="88.500000" customHeight="1">
+      <c r="A15" s="129" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B15" s="129" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C15" s="149" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D15" s="129" t="s">
         <v>754</v>
       </c>
-      <c r="E14" s="103" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F14" s="122" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H14" s="155" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A15" s="154" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B15" s="155" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C15" s="156" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D15" s="117" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="148" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H15" s="129" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="88.500000" customHeight="1">
+      <c r="A16" s="129" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B16" s="129" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C16" s="149" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="148" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H16" s="125" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="124" customFormat="1" ht="54.750000" customHeight="1">
+      <c r="A17" s="157" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C17" s="139" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D17" s="121" t="s">
         <v>754</v>
       </c>
-      <c r="E15" s="103" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F15" s="122" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G15" s="103" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H15" s="155" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A16" s="154" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B16" s="155" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C16" s="156" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D16" s="117" t="s">
-        <v>754</v>
-      </c>
-      <c r="E16" s="103" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F16" s="122" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G16" s="103" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H16" s="155" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A17" s="154" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B17" s="155" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C17" s="156" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D17" s="117" t="s">
-        <v>754</v>
-      </c>
-      <c r="E17" s="103" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F17" s="103" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G17" s="103" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H17" s="155" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A18" s="154" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B18" s="155" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C18" s="156" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D18" s="117" t="s">
-        <v>754</v>
-      </c>
-      <c r="E18" s="103" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F18" s="103" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G18" s="103" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H18" s="155"/>
-    </row>
-    <row r="19" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A19" s="170" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B19" s="170" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C19" s="162" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="161" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H19" s="170" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A20" s="170" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B20" s="170" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C20" s="162" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D20" s="170" t="s">
-        <v>754</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="161" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H20" s="170" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="88.500000" customHeight="1">
-      <c r="A21" s="170" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B21" s="170" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C21" s="162" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="161" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H21" s="164" t="s">
-        <v>1175</v>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="122" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H17" s="139" t="s">
+        <v>1213</v>
       </c>
     </row>
   </sheetData>
